--- a/NZ_Admin_JOBS.xlsx
+++ b/NZ_Admin_JOBS.xlsx
@@ -12365,12 +12365,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.86"/>
+    <col customWidth="1" min="1" max="1" width="40.71"/>
     <col customWidth="1" min="2" max="2" width="38.71"/>
     <col customWidth="1" min="3" max="3" width="40.29"/>
     <col customWidth="1" min="4" max="4" width="22.43"/>
     <col customWidth="1" min="5" max="5" width="19.0"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="48.43"/>
+    <col customWidth="1" min="7" max="7" width="28.29"/>
+    <col customWidth="1" min="8" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
